--- a/Test Matrices.xlsx
+++ b/Test Matrices.xlsx
@@ -39,36 +39,24 @@
     <t>(No. of Test Cases Executed / Total no. of Test Cases Written) * 100</t>
   </si>
   <si>
-    <t>(166/166)*100 = 100</t>
-  </si>
-  <si>
     <t>Percentage of Test Cases Not Executed</t>
   </si>
   <si>
     <t>(No. of Test Cases not Executed / Total no. of Test Cases Written) * 100</t>
   </si>
   <si>
-    <t>(0/166)*100 = 0</t>
-  </si>
-  <si>
     <t>Percentage of Test Cases Passed</t>
   </si>
   <si>
     <t>(No. of Test Cases Passed / Total no. of Test Cases Executed) * 100</t>
   </si>
   <si>
-    <t>(143/166)*100 = 86.14</t>
-  </si>
-  <si>
     <t>Percentage of Test Cases Failed</t>
   </si>
   <si>
     <t>(No. of Test Cases Failed / Total no. of Test Cases Executed) * 100</t>
   </si>
   <si>
-    <t>(23/166)*100 = 13.86</t>
-  </si>
-  <si>
     <t>Percentage of Test Cases Blocked</t>
   </si>
   <si>
@@ -112,6 +100,18 @@
   </si>
   <si>
     <t>No. of complaints per Period of Time</t>
+  </si>
+  <si>
+    <t>(46/46)*100 = 100</t>
+  </si>
+  <si>
+    <t>(0/46)*100 = 0</t>
+  </si>
+  <si>
+    <t>(44/46)*100 = 95.65</t>
+  </si>
+  <si>
+    <t>(2/46)*100 = 4.34</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -707,13 +707,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -721,13 +721,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -735,13 +735,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -749,13 +749,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -763,13 +763,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -777,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -791,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -805,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -833,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
